--- a/tests/fixtures/orderforms/1508.21.fastq.xlsx
+++ b/tests/fixtures/orderforms/1508.21.fastq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrikgrenfeldt/Documents/src/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CF87F1-1659-AF4C-AD6E-68B072BAA3CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F25687-5698-0D46-8639-98AE3B2B074E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="460" windowWidth="35640" windowHeight="20020" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1640" yWindow="460" windowWidth="35640" windowHeight="20020" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="information" sheetId="1" r:id="rId1"/>
@@ -4466,7 +4466,7 @@
   <dimension ref="A1:AMK395"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C52"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
